--- a/benchmark_system/benchmark_system.xlsx
+++ b/benchmark_system/benchmark_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\OneDrive\Documenti\git hub\PID_PIDA_Controller\benchmark_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B23613-9180-454F-9D4C-8A1C4C312A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2E149-8AFD-4D94-9914-659BFF52D0B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="1515" windowWidth="23490" windowHeight="8175" activeTab="3" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="fast and slow model" sheetId="3" r:id="rId1"/>
@@ -215,7 +215,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> and slow model</a:t>
+              <a:t> and slow modes</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -7441,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9CEEC3-602A-449F-B10F-D4D1734811D9}">
   <dimension ref="B9:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -7576,7 +7576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2449F1-55BB-4D23-B8D7-76E848DBB42E}">
   <dimension ref="B9:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/benchmark_system/benchmark_system.xlsx
+++ b/benchmark_system/benchmark_system.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\OneDrive\Documenti\git hub\PID_PIDA_Controller\benchmark_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2E149-8AFD-4D94-9914-659BFF52D0B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C4962D-EBD6-41AB-BB66-3360E66D4896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
+    <workbookView xWindow="37350" yWindow="2475" windowWidth="15915" windowHeight="11490" firstSheet="1" activeTab="2" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="fast and slow model" sheetId="3" r:id="rId1"/>
     <sheet name="multiple equals poles" sheetId="2" r:id="rId2"/>
-    <sheet name="right half plane zero" sheetId="5" r:id="rId3"/>
-    <sheet name="fourth order system" sheetId="4" r:id="rId4"/>
-    <sheet name="unstable poles" sheetId="6" r:id="rId5"/>
+    <sheet name="time delay and lag" sheetId="7" r:id="rId3"/>
+    <sheet name="right half plane zero" sheetId="5" r:id="rId4"/>
+    <sheet name="fourth order system" sheetId="4" r:id="rId5"/>
+    <sheet name="unstable poles" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>PIDA</t>
   </si>
@@ -116,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,13 +1562,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>right</a:t>
+              <a:t>time delay and lag</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> half plane zero</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1612,7 +1608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'right half plane zero'!$C$9</c:f>
+              <c:f>'time delay and lag'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1633,7 +1629,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:f>'time delay and lag'!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1647,47 +1643,47 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'right half plane zero'!$C$10:$C$15</c:f>
+              <c:f>'time delay and lag'!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2236922752410813</c:v>
+                  <c:v>1.790521349993234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3870581259999999</c:v>
+                  <c:v>1.3097368367516367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8604583494080544</c:v>
+                  <c:v>1.3110972576816591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5954186690941778</c:v>
+                  <c:v>1.4012995684926124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9454953784031939</c:v>
+                  <c:v>1.4520746255395962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6306813810423897</c:v>
+                  <c:v>1.5145213996279083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4825-4CD6-B954-992378EE8870}"/>
+              <c16:uniqueId val="{00000000-066B-47F3-94F6-B62094F601E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1696,7 +1692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'right half plane zero'!$D$9</c:f>
+              <c:f>'time delay and lag'!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,7 +1713,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:f>'time delay and lag'!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1731,47 +1727,47 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'right half plane zero'!$D$10:$D$15</c:f>
+              <c:f>'time delay and lag'!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9276863496983612</c:v>
+                  <c:v>1.7326082746436753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2859958159999998</c:v>
+                  <c:v>1.8591991003751984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5131616105030057</c:v>
+                  <c:v>2.1334299356742479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9485670924078233</c:v>
+                  <c:v>2.6728243356971602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6905547670427801</c:v>
+                  <c:v>2.9423853380038882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.008285514562223</c:v>
+                  <c:v>3.0657316741838021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4825-4CD6-B954-992378EE8870}"/>
+              <c16:uniqueId val="{00000001-066B-47F3-94F6-B62094F601E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1780,7 +1776,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'right half plane zero'!$E$9</c:f>
+              <c:f>'time delay and lag'!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1801,7 +1797,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:f>'time delay and lag'!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1815,47 +1811,47 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'right half plane zero'!$E$10:$E$15</c:f>
+              <c:f>'time delay and lag'!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.3179803734210194</c:v>
+                  <c:v>1.3788153781928221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6096605100000001</c:v>
+                  <c:v>1.4218425504138041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.278336469080231</c:v>
+                  <c:v>1.5296832194998209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1792420428947796</c:v>
+                  <c:v>1.6513532942989444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.594780481768737</c:v>
+                  <c:v>1.6716880558608584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3236060338012479</c:v>
+                  <c:v>1.6813845958830393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4825-4CD6-B954-992378EE8870}"/>
+              <c16:uniqueId val="{00000002-066B-47F3-94F6-B62094F601E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1864,7 +1860,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'right half plane zero'!$F$9</c:f>
+              <c:f>'time delay and lag'!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +1881,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:f>'time delay and lag'!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1899,47 +1895,47 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'right half plane zero'!$F$10:$F$15</c:f>
+              <c:f>'time delay and lag'!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.56943397875124657</c:v>
+                  <c:v>2.0541010700086271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4564113569999999</c:v>
+                  <c:v>1.3904654208516498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97378362840239707</c:v>
+                  <c:v>1.4028388937846537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4668242911075393</c:v>
+                  <c:v>1.5330607816647364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6018265287290334</c:v>
+                  <c:v>1.3439209875753715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6007124740047018</c:v>
+                  <c:v>1.7925068807302751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4825-4CD6-B954-992378EE8870}"/>
+              <c16:uniqueId val="{00000003-066B-47F3-94F6-B62094F601E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2348,6 +2344,793 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
+              <a:t>right</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> half plane zero</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'right half plane zero'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'right half plane zero'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2236922752410813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3870581259999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8604583494080544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5954186690941778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9454953784031939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6306813810423897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4825-4CD6-B954-992378EE8870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'right half plane zero'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I-PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'right half plane zero'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9276863496983612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2859958159999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5131616105030057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9485670924078233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6905547670427801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.008285514562223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4825-4CD6-B954-992378EE8870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'right half plane zero'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PI-D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'right half plane zero'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3179803734210194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6096605100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.278336469080231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1792420428947796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.594780481768737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3236060338012479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4825-4CD6-B954-992378EE8870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'right half plane zero'!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'right half plane zero'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'right half plane zero'!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56943397875124657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4564113569999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97378362840239707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4668242911075393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6018265287290334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6007124740047018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4825-4CD6-B954-992378EE8870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="448130976"/>
+        <c:axId val="448131632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448130976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448131632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448131632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>IAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448130976"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90128887811565761"/>
+          <c:y val="0.42942629667117987"/>
+          <c:w val="9.6062992125984251E-2"/>
+          <c:h val="0.16583299374723401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
               <a:t>fourth</a:t>
             </a:r>
             <a:r>
@@ -3052,7 +3835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3834,6 +4617,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5899,6 +6722,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6510,6 +7849,49 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B4D478-2F4A-48C2-946F-BFCBFA072C9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>325757</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -6543,7 +7925,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6586,7 +7968,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6721,7 +8103,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7030,7 +8412,7 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
@@ -7039,7 +8421,7 @@
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -7056,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -7073,7 +8455,7 @@
         <v>4.2553056964818758E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -7090,7 +8472,7 @@
         <v>9.7403141823637291</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -7107,7 +8489,7 @@
         <v>141.97651207903942</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -7124,7 +8506,7 @@
         <v>0.37469943308658493</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -7132,7 +8514,7 @@
         <v>21.884697884488297</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -7149,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -7166,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7183,7 +8565,7 @@
         <v>19.999173733374626</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -7191,7 +8573,7 @@
         <v>8.0469151070051321</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -7208,7 +8590,7 @@
         <v>2.4310914340384286E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -7225,7 +8607,7 @@
         <v>0.20696433091334829</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -7242,7 +8624,7 @@
         <v>35.371245571299113</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -7259,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -7276,7 +8658,7 @@
         <v>1.3537124557129911</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -7307,9 +8689,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7326,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -7347,7 +8729,7 @@
         <v>2.2806077411919465E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -7368,7 +8750,7 @@
         <v>0.17827851221578025</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -7389,7 +8771,7 @@
         <v>0.4666598451209909</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -7410,7 +8792,7 @@
         <v>1.1472725689825325</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -7438,16 +8820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9CEEC3-602A-449F-B10F-D4D1734811D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABF558B-CE59-42F3-9D78-CE3D09790CC4}">
   <dimension ref="B9:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7464,106 +8846,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>1.2236922752410813</v>
+        <v>1.790521349993234</v>
       </c>
       <c r="D10">
-        <v>1.9276863496983612</v>
+        <v>1.7326082746436753</v>
       </c>
       <c r="E10">
-        <v>1.3179803734210194</v>
+        <v>1.3788153781928221</v>
       </c>
       <c r="F10">
-        <v>0.56943397875124657</v>
+        <v>2.0541010700086271</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
       <c r="C11">
-        <v>1.3870581259999999</v>
+        <v>1.3097368367516367</v>
       </c>
       <c r="D11">
-        <v>2.2859958159999998</v>
+        <v>1.8591991003751984</v>
       </c>
       <c r="E11">
-        <v>1.6096605100000001</v>
+        <v>1.4218425504138041</v>
       </c>
       <c r="F11">
-        <v>1.4564113569999999</v>
+        <v>1.3904654208516498</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>1.8604583494080544</v>
+        <v>1.3110972576816591</v>
       </c>
       <c r="D12">
-        <v>3.5131616105030057</v>
+        <v>2.1334299356742479</v>
       </c>
       <c r="E12">
-        <v>2.278336469080231</v>
+        <v>1.5296832194998209</v>
       </c>
       <c r="F12">
-        <v>0.97378362840239707</v>
+        <v>1.4028388937846537</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2.5954186690941778</v>
+        <v>1.4012995684926124</v>
       </c>
       <c r="D13">
-        <v>4.9485670924078233</v>
+        <v>2.6728243356971602</v>
       </c>
       <c r="E13">
-        <v>6.1792420428947796</v>
+        <v>1.6513532942989444</v>
       </c>
       <c r="F13">
-        <v>1.4668242911075393</v>
+        <v>1.5330607816647364</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>3.9454953784031939</v>
+        <v>1.4520746255395962</v>
       </c>
       <c r="D14">
-        <v>6.6905547670427801</v>
+        <v>2.9423853380038882</v>
       </c>
       <c r="E14">
-        <v>4.594780481768737</v>
+        <v>1.6716880558608584</v>
       </c>
       <c r="F14">
-        <v>2.6018265287290334</v>
+        <v>1.3439209875753715</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>7.6306813810423897</v>
+        <v>1.5145213996279083</v>
       </c>
       <c r="D15">
-        <v>11.008285514562223</v>
+        <v>3.0657316741838021</v>
       </c>
       <c r="E15">
-        <v>8.3236060338012479</v>
+        <v>1.6813845958830393</v>
       </c>
       <c r="F15">
-        <v>5.6007124740047018</v>
+        <v>1.7925068807302751</v>
       </c>
     </row>
   </sheetData>
@@ -7573,6 +8955,141 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9CEEC3-602A-449F-B10F-D4D1734811D9}">
+  <dimension ref="B9:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>1.2236922752410813</v>
+      </c>
+      <c r="D10">
+        <v>1.9276863496983612</v>
+      </c>
+      <c r="E10">
+        <v>1.3179803734210194</v>
+      </c>
+      <c r="F10">
+        <v>0.56943397875124657</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>1.3870581259999999</v>
+      </c>
+      <c r="D11">
+        <v>2.2859958159999998</v>
+      </c>
+      <c r="E11">
+        <v>1.6096605100000001</v>
+      </c>
+      <c r="F11">
+        <v>1.4564113569999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>1.8604583494080544</v>
+      </c>
+      <c r="D12">
+        <v>3.5131616105030057</v>
+      </c>
+      <c r="E12">
+        <v>2.278336469080231</v>
+      </c>
+      <c r="F12">
+        <v>0.97378362840239707</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2.5954186690941778</v>
+      </c>
+      <c r="D13">
+        <v>4.9485670924078233</v>
+      </c>
+      <c r="E13">
+        <v>6.1792420428947796</v>
+      </c>
+      <c r="F13">
+        <v>1.4668242911075393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3.9454953784031939</v>
+      </c>
+      <c r="D14">
+        <v>6.6905547670427801</v>
+      </c>
+      <c r="E14">
+        <v>4.594780481768737</v>
+      </c>
+      <c r="F14">
+        <v>2.6018265287290334</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>7.6306813810423897</v>
+      </c>
+      <c r="D15">
+        <v>11.008285514562223</v>
+      </c>
+      <c r="E15">
+        <v>8.3236060338012479</v>
+      </c>
+      <c r="F15">
+        <v>5.6007124740047018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2449F1-55BB-4D23-B8D7-76E848DBB42E}">
   <dimension ref="B9:F14"/>
   <sheetViews>
@@ -7580,9 +9097,9 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7599,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
@@ -7616,7 +9133,7 @@
         <v>0.10417941999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
@@ -7633,7 +9150,7 @@
         <v>0.12576122360691139</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -7650,7 +9167,7 @@
         <v>0.29364352199999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -7667,7 +9184,7 @@
         <v>1.1472725689825325</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1"/>
     </row>
   </sheetData>
@@ -7676,7 +9193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300293A-E0F4-4150-9293-DFD05FA6DC8E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -7684,7 +9201,7 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
@@ -7693,7 +9210,7 @@
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -7710,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7727,7 +9244,7 @@
         <v>0.32813136699356915</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -7744,7 +9261,7 @@
         <v>9.9924076471151508</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -7761,7 +9278,7 @@
         <v>15.04304815771965</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -7778,7 +9295,7 @@
         <v>34.341857744485765</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +9306,7 @@
         <v>4.641064680914897</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -7806,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7823,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -7840,7 +9357,7 @@
         <v>19.996309807499486</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7851,7 +9368,7 @@
         <v>19.987897426402554</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7868,7 +9385,7 @@
         <v>0.12292002847399242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -7885,7 +9402,7 @@
         <v>1.7803437295481954</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -7902,7 +9419,7 @@
         <v>42.729926971037301</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -7919,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -7936,7 +9453,7 @@
         <v>1.427299269710373</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>

--- a/benchmark_system/benchmark_system.xlsx
+++ b/benchmark_system/benchmark_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\OneDrive\Documenti\git hub\PID_PIDA_Controller\benchmark_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C4962D-EBD6-41AB-BB66-3360E66D4896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924CE3D6-1EB0-4B3E-9CEA-0B3B5BA50E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37350" yWindow="2475" windowWidth="15915" windowHeight="11490" firstSheet="1" activeTab="2" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{6F14DAE5-5E3A-4574-BCAA-5E3835F20ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="fast and slow model" sheetId="3" r:id="rId1"/>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,9 +1599,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1618,15 +1617,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'time delay and lag'!$B$10:$B$15</c:f>
@@ -1681,6 +1682,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-066B-47F3-94F6-B62094F601E4}"/>
@@ -1702,15 +1704,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'time delay and lag'!$B$10:$B$15</c:f>
@@ -1765,6 +1769,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-066B-47F3-94F6-B62094F601E4}"/>
@@ -1786,15 +1791,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'time delay and lag'!$B$10:$B$15</c:f>
@@ -1849,6 +1856,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-066B-47F3-94F6-B62094F601E4}"/>
@@ -1870,15 +1878,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'time delay and lag'!$B$10:$B$15</c:f>
@@ -1933,6 +1943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-066B-47F3-94F6-B62094F601E4}"/>
@@ -1947,10 +1958,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="448130976"/>
         <c:axId val="448131632"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="448130976"/>
         <c:scaling>
@@ -2232,8 +2243,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90128887811565761"/>
           <c:y val="0.42942629667117987"/>
-          <c:w val="9.6062992125984251E-2"/>
-          <c:h val="0.16583299374723401"/>
+          <c:w val="7.6124350937356755E-2"/>
+          <c:h val="0.21474796325090426"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8409,10 +8420,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
@@ -8421,7 +8432,7 @@
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -8438,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -8455,7 +8466,7 @@
         <v>4.2553056964818758E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -8472,7 +8483,7 @@
         <v>9.7403141823637291</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -8489,7 +8500,7 @@
         <v>141.97651207903942</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -8506,7 +8517,7 @@
         <v>0.37469943308658493</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -8514,7 +8525,7 @@
         <v>21.884697884488297</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -8531,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -8548,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -8565,7 +8576,7 @@
         <v>19.999173733374626</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -8573,7 +8584,7 @@
         <v>8.0469151070051321</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -8590,7 +8601,7 @@
         <v>2.4310914340384286E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -8607,7 +8618,7 @@
         <v>0.20696433091334829</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -8624,7 +8635,7 @@
         <v>35.371245571299113</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -8641,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>1.3537124557129911</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -8689,9 +8700,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8708,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -8729,7 +8740,7 @@
         <v>2.2806077411919465E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -8750,7 +8761,7 @@
         <v>0.17827851221578025</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -8771,7 +8782,7 @@
         <v>0.4666598451209909</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -8792,7 +8803,7 @@
         <v>1.1472725689825325</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -8824,12 +8835,12 @@
   <dimension ref="B9:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8846,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
@@ -8863,7 +8874,7 @@
         <v>2.0541010700086271</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
@@ -8880,7 +8891,7 @@
         <v>1.3904654208516498</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -8897,7 +8908,7 @@
         <v>1.4028388937846537</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -8914,7 +8925,7 @@
         <v>1.5330607816647364</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -8931,7 +8942,7 @@
         <v>1.3439209875753715</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -8962,9 +8973,9 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8981,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
@@ -8998,7 +9009,7 @@
         <v>0.56943397875124657</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
@@ -9015,7 +9026,7 @@
         <v>1.4564113569999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -9032,7 +9043,7 @@
         <v>0.97378362840239707</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -9049,7 +9060,7 @@
         <v>1.4668242911075393</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -9066,7 +9077,7 @@
         <v>2.6018265287290334</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -9097,9 +9108,9 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -9116,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>0.10417941999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
@@ -9150,7 +9161,7 @@
         <v>0.12576122360691139</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -9167,7 +9178,7 @@
         <v>0.29364352199999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>1.1472725689825325</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
   </sheetData>
@@ -9201,7 +9212,7 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
@@ -9210,7 +9221,7 @@
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -9227,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -9244,7 +9255,7 @@
         <v>0.32813136699356915</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9261,7 +9272,7 @@
         <v>9.9924076471151508</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>15.04304815771965</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -9295,7 +9306,7 @@
         <v>34.341857744485765</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -9306,7 +9317,7 @@
         <v>4.641064680914897</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -9323,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -9340,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -9357,7 +9368,7 @@
         <v>19.996309807499486</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -9368,7 +9379,7 @@
         <v>19.987897426402554</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -9385,7 +9396,7 @@
         <v>0.12292002847399242</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9402,7 +9413,7 @@
         <v>1.7803437295481954</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>42.729926971037301</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -9453,7 +9464,7 @@
         <v>1.427299269710373</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
